--- a/soal.xlsx
+++ b/soal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\cbt_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDDE3BF-EBEC-4CBE-93E2-04944B02632B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5E1DB9-A69F-46A7-A9F3-BC46CDEE1E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{033C490A-BFF6-4900-8AEE-5327E57C2251}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{033C490A-BFF6-4900-8AEE-5327E57C2251}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="103">
   <si>
     <t>question_text</t>
   </si>
@@ -54,83 +54,314 @@
     <t>correct_option</t>
   </si>
   <si>
-    <t>Apa kepanjangan dari CPU?</t>
-  </si>
-  <si>
-    <t>Central Processing Unit</t>
-  </si>
-  <si>
-    <t>Central Program Unit</t>
-  </si>
-  <si>
-    <t>Central Processor Unit</t>
-  </si>
-  <si>
-    <t>Apa yang dimaksud dengan software?</t>
-  </si>
-  <si>
-    <t>Perangkat keras yang digunakan untuk komputer</t>
-  </si>
-  <si>
-    <t>Program yang dijalankan oleh komputer</t>
-  </si>
-  <si>
-    <t>Alat untuk menyimpan data</t>
-  </si>
-  <si>
-    <t>Manakah yang bukan merupakan contoh dari perangkat keras (hardware)?</t>
-  </si>
-  <si>
-    <t>Monitor</t>
-  </si>
-  <si>
-    <t>Keyboard</t>
-  </si>
-  <si>
-    <t>Windows</t>
-  </si>
-  <si>
-    <t>Mouse</t>
-  </si>
-  <si>
-    <t>Apa fungsi dari sistem operasi dalam komputer?</t>
-  </si>
-  <si>
     <t>Menyimpan data</t>
   </si>
   <si>
-    <t>Mengatur perangkat keras dan perangkat lunak agar bekerja sama</t>
-  </si>
-  <si>
-    <t>Menjalankan aplikasi perangkat lunak</t>
-  </si>
-  <si>
-    <t>Menyediakan jaringan internet</t>
-  </si>
-  <si>
-    <t>Bagaimana cara membuat folder baru di desktop Windows?</t>
-  </si>
-  <si>
-    <t>Klik kanan &gt; New &gt; Folder</t>
-  </si>
-  <si>
-    <t>Klik kiri &gt; New &gt; Folder</t>
-  </si>
-  <si>
-    <t>Tekan CTRL + F</t>
+    <t>Apa yang di maksud dengan algoritma dalam pemrograman?</t>
+  </si>
+  <si>
+    <t>Kumpulan data</t>
+  </si>
+  <si>
+    <t>Urutan Langkah-langkah logis</t>
+  </si>
+  <si>
+    <t>Bahasa pemrograman</t>
+  </si>
+  <si>
+    <t>Tipe data</t>
+  </si>
+  <si>
+    <t>Variabel dalam pemrograman digunakan untuk?</t>
+  </si>
+  <si>
+    <t>Mengontrol alur program</t>
+  </si>
+  <si>
+    <t>Menulis algoritma</t>
+  </si>
+  <si>
+    <t>Menghasilkan output</t>
+  </si>
+  <si>
+    <t>Tipe data mana yang digunakan untuk menyimpan nilai benar atau salah?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integer </t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Float </t>
+  </si>
+  <si>
+    <t>Apa fungsi dari pengendalian alur program?</t>
+  </si>
+  <si>
+    <t>Menganalisis kesalahan</t>
+  </si>
+  <si>
+    <t>Menukis kode</t>
+  </si>
+  <si>
+    <t>Mengatur urutan eksekusi instruksi</t>
+  </si>
+  <si>
+    <t>Fungsi dalam pemrograman dapat?</t>
+  </si>
+  <si>
+    <t>Mengubah Bahasa pemrograman</t>
+  </si>
+  <si>
+    <t>Menyimpan tipe data</t>
+  </si>
+  <si>
+    <t>Memanggil blok kode untuk digunakan Kembali</t>
+  </si>
+  <si>
+    <t>Mengulang kode tanpa batas</t>
+  </si>
+  <si>
+    <t>Struktur data seperti array digunakan untuk?</t>
+  </si>
+  <si>
+    <t>Menyimpan satu nilai saja</t>
+  </si>
+  <si>
+    <t>Mengorganisir dan menyimpan banyak nilai</t>
+  </si>
+  <si>
+    <t>Membuat algoritma</t>
+  </si>
+  <si>
+    <t>Dalam Bahasa pemrograman, apa itu sintaks?</t>
+  </si>
+  <si>
+    <t>Aturan penulisan kode</t>
+  </si>
+  <si>
+    <t>Jenis tipe data</t>
+  </si>
+  <si>
+    <t>Fungsi dari fariabel</t>
+  </si>
+  <si>
+    <t>Algoritma kompleks</t>
+  </si>
+  <si>
+    <t>Pengulangan dalam pemrograman dapat dilakukan dengan menggunakan?</t>
+  </si>
+  <si>
+    <t>Fungsi saja</t>
+  </si>
+  <si>
+    <t>Variabel saja</t>
+  </si>
+  <si>
+    <t>Looping (for/ while)</t>
+  </si>
+  <si>
+    <t>Apa tujuan dari debugging?</t>
+  </si>
+  <si>
+    <t>Menyimpan hasil akhir program</t>
+  </si>
+  <si>
+    <t>Mengidentifikasi dan memperbaiki kesalahan dalam kode</t>
+  </si>
+  <si>
+    <t>Menulis algoritma baru</t>
+  </si>
+  <si>
+    <t>Meningkatkan kecepatan program</t>
+  </si>
+  <si>
+    <t>Mekanisme input-output dalam pemrograman berfungsi untuk?</t>
+  </si>
+  <si>
+    <t>Menghitung nilai variabel</t>
+  </si>
+  <si>
+    <t>Berinteraksi dengan pengguna dan lingkungan luar</t>
+  </si>
+  <si>
+    <t>Menyimpan data kedalam memori</t>
+  </si>
+  <si>
+    <t>Mengubah tipe data</t>
+  </si>
+  <si>
+    <t>Apa itu SQL dalam konteks basis data?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Apa fungsi utama dari basis data?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tabel dalam basis data biasanya berisi?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Data Definition Language (DDL) digunakan untuk?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Salah satu manfaat utama dari menggunakan basis data adalah?</t>
+  </si>
+  <si>
+    <t>Menyimpan data secara acak</t>
+  </si>
+  <si>
+    <t>Mengelola dan mengambil data secara terstruktur</t>
+  </si>
+  <si>
+    <t>Menghitung nilai matematika</t>
+  </si>
+  <si>
+    <t>Mencetak dokumen</t>
+  </si>
+  <si>
+    <t>Hanya satu jenis informasi</t>
+  </si>
+  <si>
+    <t>Entitas dan atribut yang saling terkait</t>
+  </si>
+  <si>
+    <t>Hanya gambar</t>
+  </si>
+  <si>
+    <t>Hanya teks</t>
+  </si>
+  <si>
+    <t>Sebuah Bahasa pemrograman untuk aplikasi web</t>
+  </si>
+  <si>
+    <t>Bahasa kueri untuk mengelola basis data</t>
+  </si>
+  <si>
+    <t>Sistem operasi untuk server</t>
+  </si>
+  <si>
+    <t>Alat pengolah kata</t>
+  </si>
+  <si>
+    <t>Mengambil informasi dari database</t>
+  </si>
+  <si>
+    <t>Mengubah hak akses pengguna</t>
+  </si>
+  <si>
+    <t>Membuat dan mengubah struktur objek dalam database</t>
+  </si>
+  <si>
+    <t>Menghapus semua data di database</t>
+  </si>
+  <si>
+    <t>Meningkatkan redundansi informasi</t>
+  </si>
+  <si>
+    <t>Memudahkan pengambilan Keputusan berbasis data</t>
+  </si>
+  <si>
+    <t>Mengurangi keamanan informasi</t>
+  </si>
+  <si>
+    <t>Memperlambat proses pengolahan data</t>
+  </si>
+  <si>
+    <t>Apa tujuan dari Data Manipulation Language (DML)?</t>
+  </si>
+  <si>
+    <t>Untuk mendefinisikan struktur database</t>
+  </si>
+  <si>
+    <t>Untuk memanipulasi dan mengelola data di dalam database</t>
+  </si>
+  <si>
+    <t>Untuk memberikan akses kepada pengguna</t>
+  </si>
+  <si>
+    <t>Untuk menyimpan backup database</t>
+  </si>
+  <si>
+    <t>Integritas data dalam basis data bertujuan untuk?</t>
+  </si>
+  <si>
+    <t>Menyimpan semua jenis informasi tanpa Batasan</t>
+  </si>
+  <si>
+    <t>Menjaga keakuratan dan konsistensi informasi yang disimpan</t>
+  </si>
+  <si>
+    <t>Menghapus semua catatan lama</t>
+  </si>
+  <si>
+    <t>Menyimpan hanya informasi baru</t>
+  </si>
+  <si>
+    <t>Keamanan dalam basis data penting untuk?</t>
+  </si>
+  <si>
+    <t>Mempercepat proses penyimpanan</t>
+  </si>
+  <si>
+    <t>Mencegah akses tidak sah terhadap informasi sensitive</t>
+  </si>
+  <si>
+    <t>Mengurangi ukuran file database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meningkatkan jumlah pengguna </t>
+  </si>
+  <si>
+    <t>Komponen apa yang digunakan untuk mendefinisikan hak akses pada database?</t>
+  </si>
+  <si>
+    <t>Data Manipulation Language (DML)</t>
+  </si>
+  <si>
+    <t>Data Control Language (DCL)</t>
+  </si>
+  <si>
+    <t>Data Definition Language (DDL)</t>
+  </si>
+  <si>
+    <t>Structured Query Language (SQL)</t>
+  </si>
+  <si>
+    <t>Apa yang dimaksud dengan redundansi dalam konteks basis data?</t>
+  </si>
+  <si>
+    <t>Pengulangan informasi yang tidak perlu</t>
+  </si>
+  <si>
+    <t>Penyimpanan informasi secara efesien</t>
+  </si>
+  <si>
+    <t>Proses penghapusan informasi lama</t>
+  </si>
+  <si>
+    <t>Penggunaan banyak table</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -153,8 +384,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F30E7C-FD28-4432-9CBF-16E86EFA1CF3}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -504,104 +742,404 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
+      <c r="F9" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
